--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE7BE7-6BA6-44F7-92A4-BF7E2AF6385D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14B7D5-E8A2-4937-973C-8A9EA8ECBEA2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -513,11 +513,11 @@
       </c>
       <c r="C1">
         <f>SUM(B:B)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3">
-        <f>C1/70</f>
-        <v>2.8571428571428571E-2</v>
+        <f>C1/150</f>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -566,6 +566,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -582,6 +585,16 @@
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B4">
+        <f>C4-C3</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -598,6 +611,13 @@
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f>C5-C4</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -614,6 +634,13 @@
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f t="shared" ref="B6:B13" si="0">C6-C5</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -630,6 +657,13 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -644,6 +678,60 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14B7D5-E8A2-4937-973C-8A9EA8ECBEA2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69492E33-6871-46BE-B21C-F9378FD5B8F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -25,16 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +49,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -180,12 +190,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -196,6 +223,2068 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43260</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D570-41E5-BA24-65A1654E15C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532669328"/>
+        <c:axId val="532668016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532669328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532668016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532668016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532669328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43260</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC32-45D4-BC56-53FFBD0FB678}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532669328"/>
+        <c:axId val="532668016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532669328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532668016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532668016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532669328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155121</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A4C1EB-A4B6-40E3-8266-96300FC2B73E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2068C5-E0BC-4D83-8E2B-DAC56B018721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,29 +2584,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="C1">
         <f>SUM(B:B)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3">
         <f>C1/150</f>
-        <v>2.6666666666666668E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -539,10 +2632,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>43243</v>
+        <v>43242</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -561,13 +2657,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>43244</v>
+        <v>43243</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -586,14 +2682,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>43248</v>
+        <v>43244</v>
       </c>
       <c r="B4">
-        <f>C4-C3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -611,12 +2706,16 @@
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>43245</v>
+      </c>
       <c r="B5">
         <f>C5-C4</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <f t="shared" ref="C5:C16" si="0">C4</f>
+        <v>21</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
@@ -634,12 +2733,16 @@
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>43246</v>
+      </c>
       <c r="B6">
-        <f t="shared" ref="B6:B13" si="0">C6-C5</f>
+        <f>C6-C5</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
@@ -657,12 +2760,16 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>43247</v>
+      </c>
       <c r="B7">
+        <f t="shared" ref="B6:B54" si="1">C7-C6</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -680,57 +2787,253 @@
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>43248</v>
+      </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D20" si="2">D9+1</f>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>43249</v>
+      </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <f t="shared" ref="C9:C22" si="3">C8</f>
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>43250</v>
+      </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>43251</v>
+      </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>43252</v>
+      </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>43253</v>
+      </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <f>D22+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>43262</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -738,7 +3041,7 @@
     <mergeCell ref="D1:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 R1">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -751,8 +3054,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69492E33-6871-46BE-B21C-F9378FD5B8F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1DB46-1E48-4A12-AAB7-2D0343F21EA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Pages Expected</t>
   </si>
 </sst>
 </file>
@@ -163,6 +166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -190,21 +195,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -280,7 +276,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -315,7 +311,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="21"/>
@@ -387,7 +383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$3:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -413,46 +409,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,11 +688,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -766,7 +723,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="20"/>
@@ -835,7 +792,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -861,43 +818,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,15 +2133,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>155121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2248,15 +2169,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2584,463 +2505,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="0.5" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <f>SUM(B:B)</f>
-        <v>6</v>
-      </c>
-      <c r="D1" s="3">
-        <f>C1/150</f>
-        <v>0.04</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(D3:D23)</f>
+        <v>2.25</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/C1</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="2">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>43242</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>43243</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
+      <c r="D3" t="b">
+        <f>IF(B3&gt;0,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>43244</v>
+        <v>43243</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D23" si="0">IF(B4&gt;0,B4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>43245</v>
-      </c>
-      <c r="B5">
-        <f>C5-C4</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C16" si="0">C4</f>
-        <v>21</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>43246</v>
       </c>
       <c r="B6">
         <f>C6-C5</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f t="shared" ref="C6:C8" si="1">C5</f>
+        <v>21</v>
+      </c>
+      <c r="D6" t="b">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B7">
+        <f>C7-C6</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>43247</v>
       </c>
-      <c r="B7">
-        <f t="shared" ref="B6:B54" si="1">C7-C6</f>
+      <c r="B8">
+        <f t="shared" ref="B8:B10" si="2">C8-C7</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>43248</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D20" si="2">D9+1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>43249</v>
-      </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C22" si="3">C8</f>
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>43250</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>43251</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>43253</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>43254</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>43255</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>43256</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>43257</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>43258</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E21" si="3">E10+1</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>43259</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>43250</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>43251</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>43252</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>43254</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>43255</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>43256</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>43257</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>43258</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
+        <v>43259</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>43260</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="E21">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>43261</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <f>D22+1</f>
+      <c r="E22">
+        <f>E23+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>43262</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:Q7"/>
+    <mergeCell ref="E2:R8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1 R1">
+  <conditionalFormatting sqref="E2 S2">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3055,7 +2967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3076,7 +2988,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1 R1</xm:sqref>
+          <xm:sqref>E2 S2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1DB46-1E48-4A12-AAB7-2D0343F21EA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB3A53-EDBF-4A54-B092-FE649118C016}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -409,7 +409,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +692,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -818,7 +818,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2535,15 +2535,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f>AVERAGE(D3:D23)</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="5">
         <f>C2/C1</f>
-        <v>0.12857142857142856</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2769,14 +2769,14 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB3A53-EDBF-4A54-B092-FE649118C016}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97010B95-20F6-4824-8148-0160D1C1C7EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -409,6 +409,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -692,7 +695,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -819,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,7 +2514,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2535,15 +2541,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <f>AVERAGE(D3:D23)</f>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="E2" s="5">
         <f>C2/C1</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2717,7 +2723,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B10" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B11" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -2787,9 +2793,16 @@
       <c r="A11" s="1">
         <v>43250</v>
       </c>
-      <c r="D11" t="b">
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97010B95-20F6-4824-8148-0160D1C1C7EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733B751-5E2C-4432-8D1C-55F28D12014C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>Pages Expected</t>
+  </si>
+  <si>
+    <t>BACKGROUND AND PROBLEM BREAKDOWN</t>
+  </si>
+  <si>
+    <t>THESIS DEFINITION AND SCOPE</t>
+  </si>
+  <si>
+    <t>BACKGROUND</t>
+  </si>
+  <si>
+    <t>APPROACH AND EXECUTION</t>
+  </si>
+  <si>
+    <t>CONCLUSION</t>
   </si>
 </sst>
 </file>
@@ -2511,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D27" sqref="D27:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2959,6 +2974,43 @@
       <c r="D23" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733B751-5E2C-4432-8D1C-55F28D12014C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C751EB0-5750-4861-B7EE-69BF9FA36FDD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -427,7 +427,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +710,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,7 +839,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:G32"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2556,15 +2556,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <f>AVERAGE(D3:D23)</f>
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E2" s="5">
         <f>C2/C1</f>
-        <v>0.2</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2810,14 +2810,14 @@
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
@@ -2889,7 +2889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43256</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43257</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43258</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43259</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43260</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>43261</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43262</v>
       </c>
@@ -2976,41 +2976,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V24">
+        <v>210</v>
+      </c>
+      <c r="W24">
+        <f>V24-50</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V25">
+        <v>297</v>
+      </c>
+      <c r="W25">
+        <f>V25-50</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C29">
         <v>10</v>
       </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C30">
         <v>20</v>
       </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C31">
         <v>25</v>
       </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C32">
         <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C751EB0-5750-4861-B7EE-69BF9FA36FDD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975098FC-0F03-4B50-94DC-12961F2323AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -427,7 +427,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +710,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,7 +839,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,6 +848,394 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AC32-45D4-BC56-53FFBD0FB678}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532669328"/>
+        <c:axId val="532668016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532669328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532668016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532668016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532669328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Words</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43260</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D45F-4A8F-BB4D-3AC684396332}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,6 +1506,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2150,20 +2578,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>155121</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>691242</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2190,16 +3134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2221,6 +3165,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ACD3F8-4661-4AC9-A214-0B1557119ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2526,20 +3508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="0.5" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -2547,7 +3529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2556,18 +3538,20 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(D3:D23)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E2" s="5">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(E3:E23)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2" t="b">
+        <f t="shared" ref="F2:F10" si="0">IF(D2&gt;0,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.31428571428571428</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+        <v>0.32857142857142857</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -2578,13 +3562,15 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="2">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="2">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
@@ -2594,13 +3580,18 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
         <f>IF(B3&gt;0,B3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2611,9 +3602,11 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43243</v>
       </c>
@@ -2623,13 +3616,15 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D23" si="0">IF(B4&gt;0,B4)</f>
+      <c r="E4">
+        <f t="shared" ref="E2:F23" si="1">IF(B4&gt;0,B4)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="F4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2640,9 +3635,11 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="10"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43244</v>
       </c>
@@ -2652,13 +3649,15 @@
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2669,9 +3668,11 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="10"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43245</v>
       </c>
@@ -2680,16 +3681,18 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C8" si="1">C5</f>
+        <f t="shared" ref="C6:C8" si="2">C5</f>
         <v>21</v>
       </c>
-      <c r="D6" t="b">
+      <c r="E6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2700,9 +3703,11 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43246</v>
       </c>
@@ -2711,16 +3716,18 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E7" t="b">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2731,27 +3738,31 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B11" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B11" si="3">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E8" t="b">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2762,280 +3773,297 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43248</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="b">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E21" si="3">E10+1</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G21" si="4">G10+1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43249</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C10">
         <v>29</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>8349</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>IF(D11&gt;0,D11)</f>
+        <v>8349</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>43250</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43251</v>
       </c>
-      <c r="D12" t="b">
-        <f t="shared" si="0"/>
+      <c r="E12" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
+      <c r="G12">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43252</v>
       </c>
-      <c r="D13" t="b">
-        <f t="shared" si="0"/>
+      <c r="E13" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
+      <c r="G13">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43253</v>
       </c>
-      <c r="D14" t="b">
-        <f t="shared" si="0"/>
+      <c r="E14" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
+      <c r="G14">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43254</v>
       </c>
-      <c r="D15" t="b">
-        <f t="shared" si="0"/>
+      <c r="E15" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
+      <c r="G15">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43255</v>
       </c>
-      <c r="D16" t="b">
-        <f t="shared" si="0"/>
+      <c r="E16" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
+      <c r="G16">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43256</v>
       </c>
-      <c r="D17" t="b">
-        <f t="shared" si="0"/>
+      <c r="E17" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
+      <c r="G17">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43257</v>
       </c>
-      <c r="D18" t="b">
-        <f t="shared" si="0"/>
+      <c r="E18" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
+      <c r="G18">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43258</v>
       </c>
-      <c r="D19" t="b">
-        <f t="shared" si="0"/>
+      <c r="E19" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
+      <c r="G19">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43259</v>
       </c>
-      <c r="D20" t="b">
-        <f t="shared" si="0"/>
+      <c r="E20" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
+      <c r="G20">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43260</v>
       </c>
-      <c r="D21" t="b">
-        <f t="shared" si="0"/>
+      <c r="E21" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
+      <c r="G21">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>43261</v>
       </c>
-      <c r="D22" t="b">
-        <f t="shared" si="0"/>
+      <c r="E22" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22">
-        <f>E23+1</f>
+      <c r="G22">
+        <f>G23+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43262</v>
       </c>
-      <c r="D23" t="b">
-        <f t="shared" si="0"/>
+      <c r="E23" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="V24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X24">
         <v>210</v>
       </c>
-      <c r="W24">
-        <f>V24-50</f>
+      <c r="Y24">
+        <f>X24-50</f>
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="V25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X25">
         <v>297</v>
       </c>
-      <c r="W25">
-        <f>V25-50</f>
+      <c r="Y25">
+        <f>X25-50</f>
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C29">
         <v>10</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C30">
         <v>20</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C31">
         <v>25</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:R8"/>
+    <mergeCell ref="G2:T8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2 S2">
+  <conditionalFormatting sqref="G2 U2">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3071,7 +4099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2 S2</xm:sqref>
+          <xm:sqref>G2 U2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975098FC-0F03-4B50-94DC-12961F2323AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB87DD-A8C8-4A27-ACC2-69DC655DF1DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -429,6 +429,9 @@
                 <c:pt idx="8">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -710,7 +713,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -840,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,7 +3520,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3538,11 +3547,11 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>4.5999999999999996</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F2" t="b">
         <f t="shared" ref="F2:F10" si="0">IF(D2&gt;0,D2)</f>
@@ -3550,7 +3559,7 @@
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.32857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3617,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E2:F23" si="1">IF(B4&gt;0,B4)</f>
+        <f t="shared" ref="E4:E23" si="1">IF(B4&gt;0,B4)</f>
         <v>1</v>
       </c>
       <c r="F4" t="b">
@@ -3747,7 +3756,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B11" si="3">C8-C7</f>
+        <f t="shared" ref="B8:B12" si="3">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -3856,9 +3865,19 @@
       <c r="A12" s="1">
         <v>43251</v>
       </c>
-      <c r="E12" t="b">
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>9925</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB87DD-A8C8-4A27-ACC2-69DC655DF1DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617256D5-7453-4C98-B145-16911FB531BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
@@ -430,7 +431,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,7 +665,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
+              <a:t>Pages (in total)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -713,7 +714,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -845,7 +846,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,7 +1237,7 @@
                   <c:v>8349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9925</c:v>
+                  <c:v>11727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,7 +3521,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3547,19 +3548,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F2" t="b">
-        <f t="shared" ref="F2:F10" si="0">IF(D2&gt;0,D2)</f>
-        <v>0</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.4</v>
+        <v>0.52857142857142858</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3594,10 +3591,6 @@
       </c>
       <c r="E3" t="b">
         <f>IF(B3&gt;0,B3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="8"/>
@@ -3626,12 +3619,8 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E23" si="1">IF(B4&gt;0,B4)</f>
+        <f t="shared" ref="E4:E23" si="0">IF(B4&gt;0,B4)</f>
         <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -3659,12 +3648,8 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
@@ -3690,14 +3675,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C8" si="2">C5</f>
+        <f t="shared" ref="C6:C8" si="1">C5</f>
         <v>21</v>
       </c>
       <c r="E6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3725,14 +3706,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3756,18 +3733,14 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B12" si="3">C8-C7</f>
+        <f t="shared" ref="B8:B13" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3791,22 +3764,18 @@
         <v>43248</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G9">
-        <f t="shared" ref="G9:G21" si="4">G10+1</f>
+        <f t="shared" ref="G9:G21" si="3">G10+1</f>
         <v>14</v>
       </c>
     </row>
@@ -3815,22 +3784,18 @@
         <v>43249</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C10">
         <v>29</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -3839,7 +3804,7 @@
         <v>43250</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C11">
@@ -3849,15 +3814,15 @@
         <v>8349</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F11">
-        <f>IF(D11&gt;0,D11)</f>
+        <f t="shared" ref="F5:F23" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -3866,21 +3831,25 @@
         <v>43251</v>
       </c>
       <c r="B12">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>11727</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>3378</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <v>9925</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -3889,11 +3858,11 @@
         <v>43252</v>
       </c>
       <c r="E13" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3902,11 +3871,11 @@
         <v>43253</v>
       </c>
       <c r="E14" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3915,11 +3884,11 @@
         <v>43254</v>
       </c>
       <c r="E15" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3928,11 +3897,11 @@
         <v>43255</v>
       </c>
       <c r="E16" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3941,11 +3910,11 @@
         <v>43256</v>
       </c>
       <c r="E17" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3954,11 +3923,11 @@
         <v>43257</v>
       </c>
       <c r="E18" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3967,11 +3936,11 @@
         <v>43258</v>
       </c>
       <c r="E19" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3980,11 +3949,11 @@
         <v>43259</v>
       </c>
       <c r="E20" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3993,11 +3962,11 @@
         <v>43260</v>
       </c>
       <c r="E21" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4006,7 +3975,7 @@
         <v>43261</v>
       </c>
       <c r="E22" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22">
@@ -4019,7 +3988,7 @@
         <v>43262</v>
       </c>
       <c r="E23" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4124,4 +4093,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9D2CF-378C-4956-AAFD-AC298C0A88CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617256D5-7453-4C98-B145-16911FB531BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E062BD6-CD98-4EC2-858D-8503269A3C53}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -433,6 +433,9 @@
                 <c:pt idx="9">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -714,7 +717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -847,6 +850,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,10 +1163,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43242</c:v>
                 </c:pt>
@@ -1220,16 +1226,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1238,6 +1247,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,15 +3121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>117022</xdr:rowOff>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>691242</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3144,16 +3156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157843</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3183,15 +3195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:colOff>446316</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>48986</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>141516</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3520,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3548,15 +3560,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.166666666666667</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.52857142857142858</v>
+        <v>0.6</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3776,7 +3788,7 @@
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G21" si="3">G10+1</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -3796,7 +3808,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
@@ -3818,12 +3830,16 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F5:F23" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F13" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <f>F11/3</f>
+        <v>2783</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
@@ -3850,20 +3866,42 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <f>SUM(F11:F12)</f>
+        <v>11727</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43252</v>
       </c>
-      <c r="E13" t="b">
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>13112</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>1385</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f>H12+3000</f>
+        <v>14727</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
@@ -3876,7 +3914,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="5">H13+3000</f>
+        <v>17727</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
@@ -3889,7 +3931,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>20727</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
@@ -3902,7 +3948,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>23727</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
@@ -3915,7 +3965,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>26727</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
@@ -3928,7 +3982,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>29727</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
@@ -3941,7 +3999,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>32727</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
@@ -3954,7 +4016,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>35727</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
@@ -3967,7 +4033,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>38727</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
@@ -3980,7 +4050,7 @@
       </c>
       <c r="G22">
         <f>G23+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
@@ -3990,6 +4060,10 @@
       <c r="E23" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="G23">
+        <f>G24+1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E062BD6-CD98-4EC2-858D-8503269A3C53}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4963E1-D616-4D7C-A99A-907EEBEE0897}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -3532,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4963E1-D616-4D7C-A99A-907EEBEE0897}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2375DC-BF84-458D-BA59-0910095F7618}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -434,7 +434,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -852,7 +852,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1249,7 @@
                   <c:v>11727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13112</c:v>
+                  <c:v>13659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3532,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3560,15 +3560,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6</v>
+        <v>6.1428571428571432</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.6</v>
+        <v>0.61428571428571432</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3879,21 +3879,21 @@
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>13112</v>
+        <v>13659</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>1385</v>
+        <v>1932</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2375DC-BF84-458D-BA59-0910095F7618}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9469A8-D260-4D27-B008-08E0D0EE1F68}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -434,7 +434,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -852,7 +852,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1249,7 @@
                   <c:v>11727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13659</c:v>
+                  <c:v>13787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,7 +3533,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3560,15 +3560,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.1428571428571432</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.61428571428571432</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3879,21 +3879,21 @@
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>13659</v>
+        <v>13787</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>1932</v>
+        <v>2060</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9469A8-D260-4D27-B008-08E0D0EE1F68}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD61B62-A43F-4BA2-A661-25325E2A9387}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -436,6 +436,9 @@
                 <c:pt idx="10">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -717,7 +720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -853,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,6 +1256,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,7 +3542,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3548,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="C1">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -3560,15 +3569,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.4285714285714288</v>
+        <v>6.5</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.6428571428571429</v>
+        <v>0.34666666666666668</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3745,7 +3754,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B13" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B14" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -3830,16 +3839,12 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F13" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F14" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>13</v>
-      </c>
-      <c r="H11">
-        <f>F11/3</f>
-        <v>2783</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
@@ -3868,10 +3873,6 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H12">
-        <f>SUM(F11:F12)</f>
-        <v>11727</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
@@ -3899,26 +3900,32 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H13">
-        <f>H12+3000</f>
-        <v>14727</v>
-      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43253</v>
       </c>
-      <c r="E14" t="b">
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>14222</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>435</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>10</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H21" si="5">H13+3000</f>
-        <v>17727</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
@@ -3933,10 +3940,6 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>20727</v>
-      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
@@ -3950,10 +3953,6 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>23727</v>
-      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -3967,10 +3966,6 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="5"/>
-        <v>26727</v>
-      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
@@ -3984,10 +3979,6 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>29727</v>
-      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
@@ -4001,10 +3992,6 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>32727</v>
-      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
@@ -4018,10 +4005,6 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>35727</v>
-      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
@@ -4034,10 +4017,6 @@
       <c r="G21">
         <f t="shared" si="3"/>
         <v>3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
-        <v>38727</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD61B62-A43F-4BA2-A661-25325E2A9387}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0E479-63A2-45AA-9737-ECF2ADA27C2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -437,7 +437,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -858,7 +858,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1258,7 @@
                   <c:v>13787</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14222</c:v>
+                  <c:v>14745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3542,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3569,15 +3569,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.34666666666666668</v>
+        <v>0.36</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3907,21 +3907,21 @@
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>14222</v>
+        <v>14745</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>435</v>
+        <v>958</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0E479-63A2-45AA-9737-ECF2ADA27C2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970F3FB-F47E-4C28-B7FE-069984B7707C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -437,7 +437,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -858,7 +858,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1258,7 @@
                   <c:v>13787</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14745</c:v>
+                  <c:v>15849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,15 +3130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>364671</xdr:colOff>
+      <xdr:colOff>197223</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>106135</xdr:rowOff>
+      <xdr:rowOff>111897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>59871</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590388</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>73478</xdr:rowOff>
+      <xdr:rowOff>79240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3204,15 +3204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>446316</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>141516</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3569,15 +3569,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.36</v>
+        <v>0.38666666666666666</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3907,21 +3907,21 @@
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>14745</v>
+        <v>15849</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>958</v>
+        <v>2062</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970F3FB-F47E-4C28-B7FE-069984B7707C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734824C8-0CA8-4DD5-B413-4F1E062D10FF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -859,6 +859,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,6 +1262,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15849</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3548,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3931,6 +3937,12 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43254</v>
+      </c>
+      <c r="C15">
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <v>15983</v>
       </c>
       <c r="E15" t="b">
         <f t="shared" si="0"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734824C8-0CA8-4DD5-B413-4F1E062D10FF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9F1C0-71EE-4A17-B7B2-2F22923FB8B9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +53,93 @@
   </si>
   <si>
     <t>CONCLUSION</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>12H</t>
+  </si>
+  <si>
+    <t>YZC</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>Ether H</t>
+  </si>
+  <si>
+    <t>220 Ohm</t>
+  </si>
+  <si>
+    <t>Crimp</t>
+  </si>
+  <si>
+    <t>INA125</t>
+  </si>
+  <si>
+    <t>LV385</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>MicroUSB</t>
+  </si>
+  <si>
+    <t>Load Resistor</t>
+  </si>
+  <si>
+    <t>Ribbon Cable</t>
+  </si>
+  <si>
+    <t>Nylon M3 Washer</t>
+  </si>
+  <si>
+    <t>Load Cell Mount</t>
+  </si>
+  <si>
+    <t>M3 (15mm)</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>M3 (25mm)</t>
+  </si>
+  <si>
+    <t>M3 (35mm)</t>
+  </si>
+  <si>
+    <t>Washer</t>
   </si>
 </sst>
 </file>
@@ -438,6 +528,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +813,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -861,7 +954,7 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1357,7 @@
                   <c:v>15849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15983</c:v>
+                  <c:v>17862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,6 +3341,324 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BOM"/>
+      <sheetName val="Mount"/>
+      <sheetName val="Sensor"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Blue Led</v>
+          </cell>
+          <cell r="B2">
+            <v>0.40400000000000003</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Osram Opto CHIPLED 0603 470 nm Blue LED, 1608 (0603) SMD package</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Res 10k</v>
+          </cell>
+          <cell r="B3">
+            <v>3.6000000000000004E-2</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Vishay CRCW Series Thick Film Surface Mount Fixed Resistor 0805 Case 10kΩ ±1% 0.125W ±100ppm/°C</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>50 Pack</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Res 220</v>
+          </cell>
+          <cell r="B4">
+            <v>3.6000000000000004E-2</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Vishay CRCW Series Thick Film Surface Mount Fixed Resistor 0805 Case 220Ω ±1% 0.125W ±100ppm/°C</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>50 Pack</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Res 1k</v>
+          </cell>
+          <cell r="B5">
+            <v>3.6000000000000004E-2</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v xml:space="preserve">Vishay CRCW Series Thick Film Surface Mount Fixed Resistor 0805 Case 1kΩ ±1% 0.125W ±100ppm/°C </v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>50 Pack</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Nucleo</v>
+          </cell>
+          <cell r="B6">
+            <v>16.73</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>STM32 Nucleo-32 development board</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Reflective IR Sensor</v>
+          </cell>
+          <cell r="B7">
+            <v>1.3169999999999999</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v xml:space="preserve">Vishay TCRT5000L, Through Hole Reflective Sensor, Transistor Output 2, Leaded package </v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>USB to Micro USB Cable (1.8m)</v>
+          </cell>
+          <cell r="B8">
+            <v>2.5100000000000002</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>RS USB2.0 Cable, A-MicroB, M/M, 1.8m</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Ethernet Cable 1.5m</v>
+          </cell>
+          <cell r="B9">
+            <v>2.8299999999999996</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>RJ45 YELLOW PATCH LEADS UTP</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>PCB Header 36 Pin M</v>
+          </cell>
+          <cell r="B10">
+            <v>1.32</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>HARWIN M20, 2.54mm Pitch, 36 Way, 1 Row, Straight Pin Header, Through Hole</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>PCB Header 36 Pin M, Right Angle</v>
+          </cell>
+          <cell r="B11">
+            <v>1.78</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v xml:space="preserve">HARWIN M20, 2.54mm Pitch, 36 Way, 1 Row, Right Angle Pin Header, Through Hole </v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>PCB Header 45 Pin, Socket</v>
+          </cell>
+          <cell r="B12">
+            <v>3.02</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v xml:space="preserve">Stelvio Kontek MODUCOM Series 2.54mm Pitch 45 Way 1 Row Straight PCB Socket, Through Hole, Solder Termination </v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Ethernet Header</v>
+          </cell>
+          <cell r="B13">
+            <v>1.8</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v xml:space="preserve">RS Pro Cat5 8 Way Right Angle PCB Mount Unshielded RJ45 Connector Female </v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Hose Clamp (16mm)</v>
+          </cell>
+          <cell r="B14">
+            <v>0.54100000000000004</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>JCS Hi-Torque Steel Slotted Hex Hose Clip Bolt Drive, 9mm Band Width, 14mm - 16mm Inside Diameter</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Nylon Snap Grip</v>
+          </cell>
+          <cell r="B15">
+            <v>0.56200000000000006</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v xml:space="preserve">RS Pro Nylon Snap Grip, 4.2mm Band Width, 5.6mm - 6.5mm Inside Diameter </v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>KK 2 Way</v>
+          </cell>
+          <cell r="B16">
+            <v>0.221</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v xml:space="preserve">Molex KK 254 6410, 2.54mm Pitch, 2 Way, 1 Row, Straight PCB Header, Through Hole </v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>KK 3 Way</v>
+          </cell>
+          <cell r="B17">
+            <v>0.432</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v xml:space="preserve">Molex KK 254 6410, 2.54mm Pitch, 3 Way, 1 Row, Straight PCB Header, Through Hole </v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>KK 3 Way [Right]</v>
+          </cell>
+          <cell r="B18">
+            <v>1.4379999999999999</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Molex KK 254 7478, 2.54mm Pitch, 2 Way, 1 Row, Right Angle PCB Header, Through Hole</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>5 Pack</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>KK 6 way</v>
+          </cell>
+          <cell r="B19">
+            <v>0.56599999999999995</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Molex KK 254 6410, 2.54mm Pitch, 6 Way, 1 Row, Straight PCB Header, Through Hole</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>KK 8 way</v>
+          </cell>
+          <cell r="B20">
+            <v>0.89600000000000002</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v xml:space="preserve">Molex KK 254 6410, 2.54mm Pitch, 8 Way, 1 Row, Straight PCB Header, Through Hole </v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>KK 12 way</v>
+          </cell>
+          <cell r="B21">
+            <v>1.137</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v xml:space="preserve">Molex KK 254 6410, 2.54mm Pitch, 12 Way, 1 Row, Straight PCB Header, Through Hole </v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>KK 3 Way [Con]</v>
+          </cell>
+          <cell r="B22">
+            <v>0.14699999999999999</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v xml:space="preserve">Molex KK 254 2695, 2.54mm Pitch, 3 Way, 1 Row Female Connector Housing </v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>KK 12 Way [Con]</v>
+          </cell>
+          <cell r="B23">
+            <v>0.754</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v xml:space="preserve">Molex KK 254 2695, 2.54mm Pitch, 12 Way, 1 Row Female Connector Housing </v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>10 Pack</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Crimp Terminal</v>
+          </cell>
+          <cell r="B24">
+            <v>0.11700000000000001</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v xml:space="preserve">Molex KK 4809 Crimp Terminal Contact, Female, 0.05mm² to 0.35mm², 30AWG to 22AWG, Tin Plating </v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>100 Pck</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3547,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3575,15 +3986,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>7.25</v>
+        <v>6.8888888888888893</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.38666666666666666</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3760,7 +4171,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B14" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B15" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -3845,7 +4256,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F14" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F15" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -3938,15 +4349,23 @@
       <c r="A15" s="1">
         <v>43254</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C15">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15">
-        <v>15983</v>
-      </c>
-      <c r="E15" t="b">
+        <v>17862</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>2013</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
@@ -4162,12 +4581,492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9D2CF-378C-4956-AAFD-AC298C0A88CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f ca="1">VLOOKUP($A1,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>Osram Opto CHIPLED 0603 470 nm Blue LED, 1608 (0603) SMD package</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f ca="1">VLOOKUP($A2,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>Vishay CRCW Series Thick Film Surface Mount Fixed Resistor 0805 Case 10kΩ ±1% 0.125W ±100ppm/°C</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>M2*6</f>
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <f>N2*4*6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f ca="1">VLOOKUP($A3,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>Vishay CRCW Series Thick Film Surface Mount Fixed Resistor 0805 Case 220Ω ±1% 0.125W ±100ppm/°C</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="0">M3*6</f>
+        <v>102</v>
+      </c>
+      <c r="P3">
+        <f>N3*4*6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f ca="1">VLOOKUP($A4,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Vishay CRCW Series Thick Film Surface Mount Fixed Resistor 0805 Case 1kΩ ±1% 0.125W ±100ppm/°C </v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P13" si="1">N4*4*6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f ca="1">VLOOKUP($A5,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>STM32 Nucleo-32 development board</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f ca="1">VLOOKUP($A6,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Vishay TCRT5000L, Through Hole Reflective Sensor, Transistor Output 2, Leaded package </v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f ca="1">VLOOKUP($A7,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>RS USB2.0 Cable, A-MicroB, M/M, 1.8m</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f ca="1">VLOOKUP($A8,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>RJ45 YELLOW PATCH LEADS UTP</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f>M8*4</f>
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f ca="1">VLOOKUP($A9,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Stelvio Kontek MODUCOM Series 2.54mm Pitch 45 Way 1 Row Straight PCB Socket, Through Hole, Solder Termination </v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O10" si="2">M9*4</f>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f ca="1">VLOOKUP($A10,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v>HARWIN M20, 2.54mm Pitch, 36 Way, 1 Row, Straight Pin Header, Through Hole</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f ca="1">VLOOKUP($A11,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">RS Pro Cat5 8 Way Right Angle PCB Mount Unshielded RJ45 Connector Female </v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f ca="1">VLOOKUP($A12,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Molex KK 254 6410, 2.54mm Pitch, 3 Way, 1 Row, Straight PCB Header, Through Hole </v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f ca="1">VLOOKUP($A13,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Molex KK 254 6410, 2.54mm Pitch, 12 Way, 1 Row, Straight PCB Header, Through Hole </v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f ca="1">VLOOKUP($A14,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Molex KK 254 2695, 2.54mm Pitch, 3 Way, 1 Row Female Connector Housing </v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <f>M7*3+M8*12</f>
+        <v>36</v>
+      </c>
+      <c r="N14">
+        <f>N7*3+N8*12</f>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14" si="3">M14*6</f>
+        <v>216</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14" si="4">N14*4*6</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f ca="1">VLOOKUP($A15,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Molex KK 254 2695, 2.54mm Pitch, 12 Way, 1 Row Female Connector Housing </v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:O18" si="5">M15*6</f>
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:P18" si="6">N15*4*6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f ca="1">VLOOKUP($A16,[1]Data!$A$2:$D$66,3,FALSE)</f>
+        <v xml:space="preserve">Molex KK 4809 Crimp Terminal Contact, Female, 0.05mm² to 0.35mm², 30AWG to 22AWG, Tin Plating </v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f>30/45</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O22" si="7">M19*6</f>
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P21" si="8">N19*4*6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <f>M23*4</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <f>O23*2+O17*2+1</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25" si="9">M25*6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26">
+        <f>O17*4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <f>SUM(O24:O26)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.4">
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9F1C0-71EE-4A17-B7B2-2F22923FB8B9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE65D9-70B5-4A3E-A6C2-B80B5851324B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -532,6 +532,9 @@
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -813,7 +816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,6 +958,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,6 +1364,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>17862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,7 +3968,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3986,15 +3995,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.8888888888888893</v>
+        <v>6.5</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.41333333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4171,7 +4180,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B15" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B17" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -4256,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F15" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F17" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -4376,9 +4385,23 @@
       <c r="A16" s="1">
         <v>43255</v>
       </c>
-      <c r="E16" t="b">
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>19055</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>1193</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE65D9-70B5-4A3E-A6C2-B80B5851324B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36011821-8747-48BD-823C-093ACCF83F71}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -533,7 +533,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -816,7 +816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,7 +960,7 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1366,7 @@
                   <c:v>17862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19055</c:v>
+                  <c:v>19247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3967,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3995,15 +3995,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.43333333333333335</v>
+        <v>0.44</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4387,21 +4387,21 @@
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>19055</v>
+        <v>19247</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>1193</v>
+        <v>1385</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36011821-8747-48BD-823C-093ACCF83F71}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF67A7-8F66-4FD9-AAEE-6A1F26B428E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -533,7 +533,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -816,7 +816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,7 +960,7 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1366,7 @@
                   <c:v>17862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19247</c:v>
+                  <c:v>19943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,7 +3968,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3995,15 +3995,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>6.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4180,7 +4180,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B17" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B16" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -4265,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F17" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F16" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -4387,21 +4387,21 @@
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>19247</v>
+        <v>19943</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>1385</v>
+        <v>2081</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF67A7-8F66-4FD9-AAEE-6A1F26B428E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B8C75-D686-40A0-A9F1-04F48F16BB8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
                   <c:v>17862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19943</c:v>
+                  <c:v>20307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,7 +3968,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4393,7 +4393,7 @@
         <v>106</v>
       </c>
       <c r="D16">
-        <v>19943</v>
+        <v>20307</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>2081</v>
+        <v>2445</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B8C75-D686-40A0-A9F1-04F48F16BB8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C320B-486C-4A75-BD76-415C9B38E4F5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -533,7 +533,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -816,7 +816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,7 +960,7 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>106</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1366,7 @@
                   <c:v>17862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20307</c:v>
+                  <c:v>20507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3967,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3995,15 +3995,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4387,21 +4387,21 @@
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D16">
-        <v>20307</v>
+        <v>20507</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>2445</v>
+        <v>2645</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C320B-486C-4A75-BD76-415C9B38E4F5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDD2E8-819C-4648-A2B3-EE283FAF9943}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -535,6 +535,9 @@
                 <c:pt idx="13">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -816,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -961,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,6 +1373,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,7 +3977,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3995,15 +4004,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>9</v>
+        <v>8.3636363636363633</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.6</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4180,7 +4189,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B16" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B17" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -4265,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F16" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F17" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -4412,9 +4421,23 @@
       <c r="A17" s="1">
         <v>43256</v>
       </c>
-      <c r="E17" t="b">
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>21053</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>546</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDD2E8-819C-4648-A2B3-EE283FAF9943}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837240AA-91C4-4FB8-A040-B5B72A9CCCF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -536,7 +536,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -966,7 +966,7 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>20507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21053</c:v>
+                  <c:v>21213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4004,15 +4004,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>8.3636363636363633</v>
+        <v>8.454545454545455</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.61333333333333329</v>
+        <v>0.62</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4423,21 +4423,21 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>21053</v>
+        <v>21213</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>546</v>
+        <v>706</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837240AA-91C4-4FB8-A040-B5B72A9CCCF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2845C3-EE65-4F88-B2A4-8E889F33A808}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -536,7 +536,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -966,7 +966,7 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>20507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21213</c:v>
+                  <c:v>21918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,7 +3977,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4004,15 +4004,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E3:E23)</f>
-        <v>8.454545454545455</v>
+        <v>8.8181818181818183</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.62</v>
+        <v>0.64666666666666661</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4423,21 +4423,21 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D17">
-        <v>21213</v>
+        <v>21918</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>706</v>
+        <v>1411</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2845C3-EE65-4F88-B2A4-8E889F33A808}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE697F67-CC9F-4DAD-96E3-B3B2FED28C9E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -536,7 +536,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -966,7 +966,7 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>20507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21918</c:v>
+                  <c:v>22392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4004,15 +4004,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(E3:E23)</f>
-        <v>8.8181818181818183</v>
+        <f>AVERAGE(E9:E23)</f>
+        <v>10.666666666666666</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.64666666666666661</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4423,21 +4423,21 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17">
-        <v>21918</v>
+        <v>22392</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>1411</v>
+        <v>1885</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE697F67-CC9F-4DAD-96E3-B3B2FED28C9E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985F348-86BC-4FB1-97BA-CEAE0BAD7D8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -536,7 +536,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -966,7 +966,7 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>20507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22392</c:v>
+                  <c:v>22954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,7 +3977,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4004,15 +4004,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
-        <v>10.666666666666666</v>
+        <v>10.888888888888889</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.65333333333333332</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4423,21 +4423,21 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D17">
-        <v>22392</v>
+        <v>22954</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>1885</v>
+        <v>2447</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985F348-86BC-4FB1-97BA-CEAE0BAD7D8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04624BA6-4E6E-454D-87F1-3966FC10D520}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -538,6 +538,9 @@
                 <c:pt idx="14">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -819,7 +822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -967,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,6 +1382,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>22954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,7 +3986,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4004,15 +4013,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
-        <v>10.888888888888889</v>
+        <v>9.9</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.66666666666666663</v>
+        <v>0.67333333333333334</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4189,7 +4198,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B17" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B18" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -4274,7 +4283,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F17" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F18" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -4448,9 +4457,23 @@
       <c r="A18" s="1">
         <v>43257</v>
       </c>
-      <c r="E18" t="b">
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>23402</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>448</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04624BA6-4E6E-454D-87F1-3966FC10D520}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12883026-15B6-4567-8334-448C3A933D60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -539,7 +539,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -972,7 +972,7 @@
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,7 +1384,7 @@
                   <c:v>22954</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23402</c:v>
+                  <c:v>24125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3986,7 +3986,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4013,15 +4013,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="G2" s="5">
         <f>C2/C1</f>
-        <v>0.67333333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -4459,21 +4459,21 @@
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D18">
-        <v>23402</v>
+        <v>24125</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>448</v>
+        <v>1171</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12883026-15B6-4567-8334-448C3A933D60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1FA90F-8C33-49F5-843E-70B8BD2D7B7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +141,18 @@
   </si>
   <si>
     <t>Washer</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -3985,7 +3998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -5138,4 +5151,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062B031-8C23-40C2-B0D4-FBC57665CD3C}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>13.33333333</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1FA90F-8C33-49F5-843E-70B8BD2D7B7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6486887-CD54-40EA-816F-DADC34161A9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -154,12 +154,15 @@
   <si>
     <t>Count</t>
   </si>
+  <si>
+    <t>CUT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +181,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -314,6 +323,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5158,10 +5168,13 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -5176,21 +5189,28 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6.6666666670000003</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
         <v>6</v>
       </c>
+      <c r="E2" s="14" t="str">
+        <f>IF(D2&gt;A2,(D2-A2),"")</f>
+        <v/>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -5205,30 +5225,64 @@
       <c r="A3">
         <v>13.33333333</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">C2+1</f>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">C3-B3</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D5" si="1">C3-B3</f>
+        <v>18</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E5" si="2">IF(D3&gt;A3,(D3-A3),"")</f>
+        <v>4.6666666699999997</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>30</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>86</v>
+      </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6486887-CD54-40EA-816F-DADC34161A9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE5398-D8A0-40C1-952C-E733099FAE65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>CUT</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SS1</t>
+  </si>
+  <si>
+    <t>SS2</t>
+  </si>
+  <si>
+    <t>SS3</t>
+  </si>
+  <si>
+    <t>SS4</t>
+  </si>
+  <si>
+    <t>SS5</t>
   </si>
 </sst>
 </file>
@@ -296,6 +314,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,7 +342,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,6 +581,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -996,6 +1017,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,6 +1433,9 @@
                 <c:pt idx="15">
                   <c:v>24125</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>22592</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1606,6 +1633,301 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$9:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SS1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SS2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SS3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SS4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SS5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$9:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBF8-4734-BB26-B50052F34AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1726,6 +2048,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3255,6 +3617,525 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3279,15 +4160,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>111897</xdr:rowOff>
+      <xdr:colOff>312484</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590388</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>79240</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7684</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3315,15 +4196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>192101</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:colOff>545887</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3354,14 +4235,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>45464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3383,6 +4264,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EE4465-BA1D-41C2-817D-314118DBE6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4008,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4036,29 +4958,29 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
         <v>10.3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f>C2/C1</f>
-        <v>0.7</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7"/>
+        <v>0.60666666666666669</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="2">
         <f>1</f>
         <v>1</v>
@@ -4081,20 +5003,20 @@
         <f>IF(B3&gt;0,B3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -4110,20 +5032,20 @@
         <f t="shared" ref="E4:E23" si="0">IF(B4&gt;0,B4)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -4139,20 +5061,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -4170,20 +5092,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -4201,27 +5123,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B18" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B19" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -4232,20 +5154,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -4306,7 +5228,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F18" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F19" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -4507,9 +5429,23 @@
       <c r="A19" s="1">
         <v>43258</v>
       </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="C19">
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <v>22592</v>
+      </c>
       <c r="E19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>-1533</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
@@ -5165,10 +6101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062B031-8C23-40C2-B0D4-FBC57665CD3C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5201,13 +6137,14 @@
         <v>11</v>
       </c>
       <c r="C2">
+        <f>B3-1</f>
         <v>17</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="5" t="str">
         <f>IF(D2&gt;A2,(D2-A2),"")</f>
         <v/>
       </c>
@@ -5226,19 +6163,19 @@
         <v>13.33333333</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" si="0">C2+1</f>
         <v>18</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <f t="shared" ref="C3:C5" si="0">B4-1</f>
+        <v>28</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="1">C3-B3</f>
-        <v>18</v>
-      </c>
-      <c r="E3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E5" si="2">IF(D3&gt;A3,(D3-A3),"")</f>
-        <v>4.6666666699999997</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -5246,17 +6183,17 @@
         <v>30</v>
       </c>
       <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -5266,23 +6203,195 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>79</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>87</v>
-      </c>
-      <c r="C5">
-        <v>95</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <f>SUM(D2:D5)</f>
+        <v>73</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7-60</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <f>B10-1</f>
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>C9-B9</f>
+        <v>9</v>
+      </c>
+      <c r="F9" t="str">
+        <f>A9</f>
+        <v>SS</v>
+      </c>
+      <c r="G9">
+        <f>D9</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C14" si="3">B11-1</f>
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D14" si="4">C10-B10</f>
+        <v>12</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10:F14" si="5">A10</f>
+        <v>SS1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G14" si="6">D10</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="5"/>
+        <v>SS2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="5"/>
+        <v>SS3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="5"/>
+        <v>SS4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="5"/>
+        <v>SS5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <f>B5</f>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE5398-D8A0-40C1-952C-E733099FAE65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5619EA-BC47-44E1-A2F5-B0FFC36D300F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>SS5</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -1699,6 +1702,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2FF2-4717-AE20-0DDA7D4EBDF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1714,6 +1722,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2FF2-4717-AE20-0DDA7D4EBDF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1729,6 +1742,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2FF2-4717-AE20-0DDA7D4EBDF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1744,6 +1762,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2FF2-4717-AE20-0DDA7D4EBDF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1759,6 +1782,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2FF2-4717-AE20-0DDA7D4EBDF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1774,6 +1802,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2FF2-4717-AE20-0DDA7D4EBDF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1817,13 +1850,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4276,16 +4309,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>582386</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179615</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6101,10 +6134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062B031-8C23-40C2-B0D4-FBC57665CD3C}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6112,7 +6145,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -6129,7 +6162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6.6666666670000003</v>
       </c>
@@ -6158,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>13.33333333</v>
       </c>
@@ -6178,7 +6211,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>30</v>
       </c>
@@ -6198,7 +6231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
@@ -6218,12 +6251,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D7">
         <f>SUM(D2:D5)</f>
         <v>73</v>
@@ -6232,8 +6265,28 @@
         <f>D7-60</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <f>SUM(G9:G12)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <f>SUM(G9:G14)-30+H8</f>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>30-SUM(H9:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6256,8 +6309,19 @@
         <f>D9</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="str">
+        <f>A9</f>
+        <v>SS</v>
+      </c>
+      <c r="J9">
+        <f>D9-H9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -6280,8 +6344,19 @@
         <f t="shared" ref="G10:G14" si="6">D10</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I14" si="7">A10</f>
+        <v>SS1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J14" si="8">D10-H10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -6304,8 +6379,19 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="7"/>
+        <v>SS2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -6314,11 +6400,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="5"/>
@@ -6326,23 +6412,34 @@
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="7"/>
+        <v>SS3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6353,23 +6450,35 @@
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f>G13</f>
+        <v>3</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="7"/>
+        <v>SS4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6380,13 +6489,24 @@
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f>G14</f>
+        <v>4</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="7"/>
+        <v>SS5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15">
-        <f>B5</f>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5619EA-BC47-44E1-A2F5-B0FFC36D300F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53825DE6-CAC0-41A1-A068-4F2440AFE389}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -1847,7 +1847,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -6137,7 +6137,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6220,15 +6220,15 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -6236,11 +6236,11 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -6253,27 +6253,27 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D7">
         <f>SUM(D2:D5)</f>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5">
         <f>D7-60</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <f>SUM(G9:G12)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G8">
         <f>SUM(G9:G14)-30+H8</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <f>30-SUM(H9:H14)</f>
@@ -6341,7 +6341,7 @@
         <v>SS1</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G14" si="6">D10</f>
+        <f t="shared" ref="G10:G15" si="6">D10</f>
         <v>12</v>
       </c>
       <c r="H10">
@@ -6365,11 +6365,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="5"/>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -6396,11 +6396,11 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
@@ -6431,11 +6431,11 @@
         <v>46</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
@@ -6470,11 +6470,11 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -6506,7 +6506,11 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53825DE6-CAC0-41A1-A068-4F2440AFE389}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D64B6-611A-4AC7-A5B6-510D283A352C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -1844,10 +1844,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -6137,7 +6137,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6161,6 +6161,10 @@
       <c r="E1" t="s">
         <v>41</v>
       </c>
+      <c r="G1">
+        <f>82-11</f>
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -6203,7 +6207,7 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D6" si="1">C3-B3</f>
         <v>10</v>
       </c>
       <c r="E3" s="5" t="str">
@@ -6240,11 +6244,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="2"/>
@@ -6253,18 +6257,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <f>B6-B2</f>
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D7">
-        <f>SUM(D2:D5)</f>
-        <v>68</v>
-      </c>
-      <c r="E7" s="5">
-        <f>D7-60</f>
-        <v>8</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="G7">
         <f>SUM(G9:G12)</f>
         <v>32</v>
@@ -6330,11 +6335,11 @@
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C14" si="3">B11-1</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D14" si="4">C10-B10</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ref="F10:F14" si="5">A10</f>
@@ -6342,7 +6347,7 @@
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G15" si="6">D10</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -6353,7 +6358,7 @@
       </c>
       <c r="J10">
         <f t="shared" ref="J10:J14" si="8">D10-H10</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -6361,7 +6366,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -6369,7 +6374,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="5"/>
@@ -6377,7 +6382,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6388,7 +6393,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D64B6-611A-4AC7-A5B6-510D283A352C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D83E9-E3F8-4682-AE58-C32B7C01AA40}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -1844,10 +1844,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -6137,7 +6137,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6224,15 +6224,15 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>IF(D4&gt;A4,(D4-A4),"")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -6240,15 +6240,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <f>-2+69</f>
+        <v>67</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="2"/>
@@ -6257,28 +6258,33 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>82</v>
+        <f>-2+78</f>
+        <v>76</v>
       </c>
       <c r="C6">
-        <f>B6-B2</f>
-        <v>71</v>
+        <f>SUM(D2:D5)</f>
+        <v>61</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>-11</v>
+        <f>C6-60</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E7" s="5"/>
       <c r="G7">
         <f>SUM(G9:G12)</f>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <f>SUM(D9:D14)</f>
+        <v>34</v>
+      </c>
       <c r="G8">
         <f>SUM(G9:G14)-30+H8</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <f>30-SUM(H9:H14)</f>
@@ -6335,11 +6341,11 @@
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C14" si="3">B11-1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D14" si="4">C10-B10</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ref="F10:F14" si="5">A10</f>
@@ -6347,7 +6353,7 @@
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G15" si="6">D10</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -6358,7 +6364,7 @@
       </c>
       <c r="J10">
         <f t="shared" ref="J10:J14" si="8">D10-H10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -6366,15 +6372,15 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="5"/>
@@ -6382,7 +6388,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6393,7 +6399,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -6401,11 +6407,11 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
@@ -6436,11 +6442,11 @@
         <v>46</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
@@ -6475,11 +6481,11 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -6511,7 +6517,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D83E9-E3F8-4682-AE58-C32B7C01AA40}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1417DE-B106-4258-A740-245086FB2FEC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="2" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,6 +588,9 @@
                 <c:pt idx="16">
                   <c:v>-14</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -869,7 +872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1023,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,6 +1444,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>22592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4963,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4991,15 +5000,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
-        <v>10.3</v>
+        <v>9.6363636363636367</v>
       </c>
       <c r="G2" s="6">
         <f>C2/C1</f>
-        <v>0.60666666666666669</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5176,7 +5185,7 @@
         <v>43247</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B19" si="2">C8-C7</f>
+        <f t="shared" ref="B8:B23" si="2">C8-C7</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -5261,7 +5270,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F19" si="4">D11-D10</f>
+        <f t="shared" ref="F11:F23" si="4">D11-D10</f>
         <v>8349</v>
       </c>
       <c r="G11">
@@ -5502,9 +5511,23 @@
       <c r="A21" s="1">
         <v>43260</v>
       </c>
-      <c r="E21" t="b">
+      <c r="B21">
+        <f>C21-C19</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>113</v>
+      </c>
+      <c r="D21">
+        <v>24439</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f>D21-D19</f>
+        <v>1847</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -6136,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062B031-8C23-40C2-B0D4-FBC57665CD3C}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6207,7 +6230,7 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">C3-B3</f>
+        <f t="shared" ref="D3:D5" si="1">C3-B3</f>
         <v>10</v>
       </c>
       <c r="E3" s="5" t="str">

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1417DE-B106-4258-A740-245086FB2FEC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B12F6C-5EAB-4093-A268-91109CB8C148}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -591,6 +591,9 @@
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -872,7 +875,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1029,6 +1032,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,9 +1421,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>8349</c:v>
                 </c:pt>
@@ -1447,6 +1450,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>24439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4972,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ABB1B-0852-401E-B9D9-23AC9C720A04}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5000,15 +5006,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
-        <v>9.6363636363636367</v>
+        <v>9.0833333333333339</v>
       </c>
       <c r="G2" s="6">
         <f>C2/C1</f>
-        <v>0.62666666666666671</v>
+        <v>0.64666666666666661</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5038,9 +5044,6 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3" t="b">
         <f>IF(B3&gt;0,B3)</f>
         <v>0</v>
@@ -5538,9 +5541,23 @@
       <c r="A22" s="1">
         <v>43261</v>
       </c>
-      <c r="E22" t="b">
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>116</v>
+      </c>
+      <c r="D22">
+        <v>25367</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>928</v>
       </c>
       <c r="G22">
         <f>G23+1</f>

--- a/Report/Progress Bar.xlsx
+++ b/Report/Progress Bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B12F6C-5EAB-4093-A268-91109CB8C148}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E18F5D9-5E5D-43AF-B050-325A1E605FB0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{EA1F1417-5E9D-4960-A68D-0B4549A49CFA}"/>
   </bookViews>
@@ -592,7 +592,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,7 +878,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1034,7 +1037,7 @@
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,7 +1455,10 @@
                   <c:v>24439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25367</c:v>
+                  <c:v>25950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,7 +4985,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5006,15 +5012,15 @@
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <f>AVERAGE(E9:E23)</f>
-        <v>9.0833333333333339</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="G2" s="6">
         <f>C2/C1</f>
-        <v>0.64666666666666661</v>
+        <v>0.72666666666666668</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5543,21 +5549,21 @@
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>25367</v>
+        <v>25950</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>928</v>
+        <v>1511</v>
       </c>
       <c r="G22">
         <f>G23+1</f>
@@ -5568,8 +5574,22 @@
       <c r="A23" s="1">
         <v>43262</v>
       </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <v>25950</v>
+      </c>
       <c r="E23" t="b">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23">
